--- a/_tainh/Report_01/ReactJS_Training_Schedule (1).xlsx
+++ b/_tainh/Report_01/ReactJS_Training_Schedule (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\May_tai\Du_Lieu\HK6\Thuc tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E976A0CD-1E53-41B7-8D27-51E1F4CF2CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF45BB2-041B-4C3C-ADF2-B05384C0D27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
   <si>
     <t>Training Outline</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>70/100</t>
+  </si>
+  <si>
+    <t>80/100</t>
   </si>
 </sst>
 </file>
@@ -850,44 +853,44 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4527,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5305,19 +5308,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="4" spans="2:12" ht="40.5" customHeight="1">
       <c r="B4" s="71" t="s">
@@ -5432,10 +5435,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5445,17 +5448,17 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="75" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12">
-        <v>43671</v>
+        <v>43641</v>
       </c>
       <c r="J8" s="12">
-        <v>43671</v>
+        <v>43641</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>110</v>
@@ -5465,8 +5468,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5474,13 +5477,13 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="12">
-        <v>43671</v>
+        <v>43641</v>
       </c>
       <c r="J9" s="12">
-        <v>43671</v>
+        <v>43641</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>110</v>
@@ -5490,8 +5493,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5499,13 +5502,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="12">
-        <v>43671</v>
+        <v>43641</v>
       </c>
       <c r="J10" s="12">
-        <v>43671</v>
+        <v>43641</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>110</v>
@@ -5515,8 +5518,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5524,18 +5527,24 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="J11" s="12">
+        <v>43644</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L11" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5543,18 +5552,24 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="12">
+        <v>43642</v>
+      </c>
+      <c r="J12" s="12">
+        <v>43644</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5562,18 +5577,18 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="84" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5583,20 +5598,26 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="12">
+        <v>43647</v>
+      </c>
+      <c r="J14" s="12">
+        <v>43647</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="81"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5604,18 +5625,24 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="12">
+        <v>43648</v>
+      </c>
+      <c r="J15" s="12">
+        <v>43649</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L15" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5623,18 +5650,24 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="12">
+        <v>43648</v>
+      </c>
+      <c r="J16" s="12">
+        <v>43649</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="81"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5642,18 +5675,24 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="12">
+        <v>43648</v>
+      </c>
+      <c r="J17" s="12">
+        <v>43649</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5661,18 +5700,24 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="12">
+        <v>43650</v>
+      </c>
+      <c r="J18" s="12">
+        <v>43650</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="L18" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5680,8 +5725,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -5690,8 +5735,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5699,8 +5744,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -5709,8 +5754,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5718,8 +5763,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -5728,8 +5773,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5737,8 +5782,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -5747,8 +5792,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5756,8 +5801,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -5766,8 +5811,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="81"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5775,8 +5820,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -5785,8 +5830,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="81"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5794,8 +5839,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="86"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5804,8 +5849,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5813,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5821,10 +5866,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="81">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="84" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5834,7 +5879,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5846,8 +5891,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5855,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5942,6 +5987,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -5957,12 +6008,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
